--- a/data/HSE资源费用月表_2025年3月.xlsx
+++ b/data/HSE资源费用月表_2025年3月.xlsx
@@ -8,12 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\A_Work_Station\Work_Platform\A_Plan\Agent\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8AA9F4DF-2964-4B48-B64B-F140A6B308AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2C3A1E12-90A3-4556-A4CC-56BF324992CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{C6A5E1EE-FDC6-42FF-B40B-03E92D8CE603}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{B5B39FC6-0A3C-43C9-BEB7-9AD508D81C37}"/>
   </bookViews>
   <sheets>
-    <sheet name="费用统计" sheetId="1" r:id="rId1"/>
+    <sheet name="费用统计" sheetId="4" r:id="rId1"/>
+    <sheet name="集群统计" sheetId="3" r:id="rId2"/>
+    <sheet name="slot使用情况统计" sheetId="2" r:id="rId3"/>
+    <sheet name="mem使用情况统计" sheetId="1" r:id="rId4"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -25,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="56">
   <si>
     <t>HSE团队名称</t>
   </si>
@@ -94,6 +97,9 @@
   </si>
   <si>
     <t>Platform</t>
+  </si>
+  <si>
+    <t>Impl-FE</t>
   </si>
   <si>
     <t>SIPI</t>
@@ -111,6 +117,87 @@
   <si>
     <t>-</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HSE集群名称</t>
+  </si>
+  <si>
+    <t>总节点数（台）</t>
+  </si>
+  <si>
+    <t>hse_front_end_hosts</t>
+  </si>
+  <si>
+    <t>middle_end_hosts</t>
+  </si>
+  <si>
+    <t>back_end_hosts</t>
+  </si>
+  <si>
+    <t>middle_end_8_hosts</t>
+  </si>
+  <si>
+    <t>pdfct_hosts</t>
+  </si>
+  <si>
+    <t>pdpv_hosts</t>
+  </si>
+  <si>
+    <t>pdpwr_hosts</t>
+  </si>
+  <si>
+    <t>pdxlarge_hosts</t>
+  </si>
+  <si>
+    <t>slot利用率Week1</t>
+  </si>
+  <si>
+    <t>slot利用率Week2</t>
+  </si>
+  <si>
+    <t>slot利用率Week3</t>
+  </si>
+  <si>
+    <t>slot利用率Week4</t>
+  </si>
+  <si>
+    <t>slot申请占比Week1</t>
+  </si>
+  <si>
+    <t>slot申请占比Week2</t>
+  </si>
+  <si>
+    <t>slot申请占比Week3</t>
+  </si>
+  <si>
+    <t>slot申请占比Week4</t>
+  </si>
+  <si>
+    <t>mem利用率Week1</t>
+  </si>
+  <si>
+    <t>mem利用率Week2</t>
+  </si>
+  <si>
+    <t>mem利用率Week3</t>
+  </si>
+  <si>
+    <t>mem利用率Week4</t>
+  </si>
+  <si>
+    <t>mem申请占比Week1</t>
+  </si>
+  <si>
+    <t>mem申请占比Week2</t>
+  </si>
+  <si>
+    <t>mem申请占比Week3</t>
+  </si>
+  <si>
+    <t>mem申请占比Week4</t>
+  </si>
+  <si>
+    <t>dfx</t>
   </si>
 </sst>
 </file>
@@ -473,7 +560,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57C3F66D-039E-4F14-B676-46CF98D9EA00}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02FE4E91-D1F2-41FE-8072-2C6FF29EA2BA}">
   <dimension ref="A1:E23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -505,13 +592,13 @@
         <v>3.4152999999999998</v>
       </c>
       <c r="C2">
-        <v>20.838236646134042</v>
+        <v>42.489629013885569</v>
       </c>
       <c r="D2" t="s">
         <v>6</v>
       </c>
       <c r="E2">
-        <v>24.253536646134041</v>
+        <v>45.904929013885571</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
@@ -522,13 +609,13 @@
         <v>0.99960000000000004</v>
       </c>
       <c r="C3">
-        <v>1.0345223866875055</v>
+        <v>2.2549938931290594</v>
       </c>
       <c r="D3" t="s">
         <v>6</v>
       </c>
       <c r="E3">
-        <v>2.0341223866875056</v>
+        <v>3.2545938931290594</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
@@ -539,13 +626,13 @@
         <v>2.4157000000000002</v>
       </c>
       <c r="C4">
-        <v>0.65766066010848578</v>
+        <v>1.1438226251230261</v>
       </c>
       <c r="D4" t="s">
         <v>6</v>
       </c>
       <c r="E4">
-        <v>3.0733606601084862</v>
+        <v>3.5595226251230265</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
@@ -556,13 +643,13 @@
         <v>4.3315999999999999</v>
       </c>
       <c r="C5">
-        <v>1.4778891238392937</v>
+        <v>3.3957729196760211</v>
       </c>
       <c r="D5" t="s">
         <v>6</v>
       </c>
       <c r="E5">
-        <v>5.8094891238392936</v>
+        <v>7.7273729196760215</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
@@ -573,13 +660,13 @@
         <v>0.87465000000000004</v>
       </c>
       <c r="C6">
-        <v>0.83352946584536181</v>
+        <v>1.8168807938925564</v>
       </c>
       <c r="D6" t="s">
         <v>6</v>
       </c>
       <c r="E6">
-        <v>1.7081794658453617</v>
+        <v>2.6915307938925563</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
@@ -590,13 +677,13 @@
         <v>1.54105</v>
       </c>
       <c r="C7">
-        <v>9.4584903925714808E-2</v>
+        <v>0.28888672903310025</v>
       </c>
       <c r="D7" t="s">
         <v>6</v>
       </c>
       <c r="E7">
-        <v>1.6356349039257148</v>
+        <v>1.8299367290331003</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
@@ -607,13 +694,13 @@
         <v>0.9163</v>
       </c>
       <c r="C8">
-        <v>0.59115564953571753</v>
+        <v>1.2885679389308911</v>
       </c>
       <c r="D8" t="s">
         <v>6</v>
       </c>
       <c r="E8">
-        <v>1.5074556495357174</v>
+        <v>2.2048679389308909</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
@@ -624,13 +711,13 @@
         <v>0.1666</v>
       </c>
       <c r="C9">
-        <v>0.37686172657901995</v>
+        <v>1.0760175466976813</v>
       </c>
       <c r="D9" t="s">
         <v>6</v>
       </c>
       <c r="E9">
-        <v>0.54346172657901992</v>
+        <v>1.2426175466976814</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
@@ -641,13 +728,13 @@
         <v>0.83299999999999996</v>
       </c>
       <c r="C10">
-        <v>0.73894456191964686</v>
+        <v>1.6107099236636138</v>
       </c>
       <c r="D10" t="s">
         <v>6</v>
       </c>
       <c r="E10">
-        <v>1.5719445619196468</v>
+        <v>2.4437099236636137</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
@@ -658,13 +745,13 @@
         <v>4.3315999999999999</v>
       </c>
       <c r="C11">
-        <v>0.82170635285464744</v>
+        <v>1.7911094351139387</v>
       </c>
       <c r="D11" t="s">
         <v>6</v>
       </c>
       <c r="E11">
-        <v>5.1533063528546474</v>
+        <v>6.1227094351139382</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
@@ -675,13 +762,13 @@
         <v>0.9163</v>
       </c>
       <c r="C12">
-        <v>0.14778891238392938</v>
+        <v>0.32214198473272276</v>
       </c>
       <c r="D12" t="s">
         <v>6</v>
       </c>
       <c r="E12">
-        <v>1.0640889123839294</v>
+        <v>1.2384419847327228</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
@@ -692,13 +779,13 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.14778891238392938</v>
+        <v>0.32214198473272276</v>
       </c>
       <c r="D13" t="s">
         <v>6</v>
       </c>
       <c r="E13">
-        <v>0.14778891238392938</v>
+        <v>0.32214198473272276</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
@@ -760,13 +847,13 @@
         <v>12.828200000000001</v>
       </c>
       <c r="C17">
-        <v>2.2945736434108528</v>
+        <v>4.1730816088753393</v>
       </c>
       <c r="D17" t="s">
         <v>6</v>
       </c>
       <c r="E17">
-        <v>15.122773643410854</v>
+        <v>17.001281608875338</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
@@ -777,69 +864,69 @@
         <v>7.2470999999999997</v>
       </c>
       <c r="C18">
-        <v>5.7364341085271313</v>
+        <v>11.606771500603655</v>
       </c>
       <c r="D18" t="s">
         <v>6</v>
       </c>
       <c r="E18">
-        <v>12.983534108527131</v>
+        <v>18.853871500603653</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B19">
         <v>8.1633999999999993</v>
       </c>
       <c r="C19">
-        <v>2.2151162790697674</v>
+        <v>2.9195567661189501</v>
       </c>
       <c r="D19" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E19">
-        <v>10.378516279069768</v>
+        <v>11.082956766118949</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B20">
         <v>0.99960000000000004</v>
       </c>
       <c r="C20">
-        <v>0.43023255813953487</v>
+        <v>0.78245280166412612</v>
       </c>
       <c r="D20" t="s">
         <v>6</v>
       </c>
       <c r="E20">
-        <v>1.4298325581395348</v>
+        <v>1.7820528016641262</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B21">
         <v>0.66639999999999999</v>
       </c>
       <c r="C21">
-        <v>0.5736434108527132</v>
+        <v>1.0432704022188348</v>
       </c>
       <c r="D21" t="s">
         <v>6</v>
       </c>
       <c r="E21">
-        <v>1.2400434108527132</v>
+        <v>1.7096704022188347</v>
       </c>
     </row>
     <row r="22" spans="1:5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B22">
         <v>28.838459999999998</v>
@@ -859,4 +946,669 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D5448C0-B724-4EFE-B1CB-BCC1E25531C0}">
+  <dimension ref="A1:B9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2">
+        <v>1024</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B3">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B4">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B5">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>35</v>
+      </c>
+      <c r="B6">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>36</v>
+      </c>
+      <c r="B7">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>37</v>
+      </c>
+      <c r="B8">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>38</v>
+      </c>
+      <c r="B9">
+        <v>48</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9035C15E-0862-4D9E-A6E1-5BEE0FAEF32C}">
+  <dimension ref="A1:I13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F1" t="s">
+        <v>43</v>
+      </c>
+      <c r="G1" t="s">
+        <v>44</v>
+      </c>
+      <c r="H1" t="s">
+        <v>45</v>
+      </c>
+      <c r="I1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2">
+        <v>0.86808510638297887</v>
+      </c>
+      <c r="C2">
+        <v>0.67515596330275229</v>
+      </c>
+      <c r="D2">
+        <v>0.86808510638297887</v>
+      </c>
+      <c r="E2">
+        <v>0.8947588652482269</v>
+      </c>
+      <c r="F2">
+        <v>0.64815666084398271</v>
+      </c>
+      <c r="G2">
+        <v>0.62136586478166689</v>
+      </c>
+      <c r="H2">
+        <v>0.64815666084398271</v>
+      </c>
+      <c r="I2">
+        <v>0.72553257178141406</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3">
+        <v>0.48642857142857149</v>
+      </c>
+      <c r="C3">
+        <v>0.16928571428571429</v>
+      </c>
+      <c r="D3">
+        <v>0.48642857142857149</v>
+      </c>
+      <c r="E3">
+        <v>0.37528571428571428</v>
+      </c>
+      <c r="F3">
+        <v>3.2177990254665806E-2</v>
+      </c>
+      <c r="G3">
+        <v>3.9904229848363927E-2</v>
+      </c>
+      <c r="H3">
+        <v>3.2177990254665806E-2</v>
+      </c>
+      <c r="I3">
+        <v>3.6019347535247506E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4">
+        <v>0.64950561797752815</v>
+      </c>
+      <c r="C4">
+        <v>0.86897142857142851</v>
+      </c>
+      <c r="D4">
+        <v>0.64950561797752815</v>
+      </c>
+      <c r="E4">
+        <v>0.59275</v>
+      </c>
+      <c r="F4">
+        <v>2.0456008090466122E-2</v>
+      </c>
+      <c r="G4">
+        <v>1.9952114924181964E-2</v>
+      </c>
+      <c r="H4">
+        <v>2.0456008090466122E-2</v>
+      </c>
+      <c r="I4">
+        <v>1.0291242152927859E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5">
+        <v>0.81940000000000002</v>
+      </c>
+      <c r="C5">
+        <v>0.34870000000000007</v>
+      </c>
+      <c r="D5">
+        <v>0.81940000000000002</v>
+      </c>
+      <c r="E5">
+        <v>0.32229090909090907</v>
+      </c>
+      <c r="F5">
+        <v>4.5968557506665439E-2</v>
+      </c>
+      <c r="G5">
+        <v>6.2706646904571881E-2</v>
+      </c>
+      <c r="H5">
+        <v>4.5968557506665439E-2</v>
+      </c>
+      <c r="I5">
+        <v>5.660183184110322E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6">
+        <v>0.37558156028368794</v>
+      </c>
+      <c r="C6">
+        <v>0.27728368794326241</v>
+      </c>
+      <c r="D6">
+        <v>0.37558156028368794</v>
+      </c>
+      <c r="E6">
+        <v>0.34329078014184394</v>
+      </c>
+      <c r="F6">
+        <v>2.592626643375931E-2</v>
+      </c>
+      <c r="G6">
+        <v>3.2151408049253219E-2</v>
+      </c>
+      <c r="H6">
+        <v>2.592626643375931E-2</v>
+      </c>
+      <c r="I6">
+        <v>2.9021302871256562E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7">
+        <v>0.20100000000000001</v>
+      </c>
+      <c r="C7">
+        <v>0.62522695035460996</v>
+      </c>
+      <c r="D7">
+        <v>0.20100000000000001</v>
+      </c>
+      <c r="E7">
+        <v>0.33629268292682929</v>
+      </c>
+      <c r="F7">
+        <v>2.9419876804265884E-3</v>
+      </c>
+      <c r="G7">
+        <v>3.6483867289932733E-3</v>
+      </c>
+      <c r="H7">
+        <v>2.9419876804265884E-3</v>
+      </c>
+      <c r="I7">
+        <v>8.4388185654008432E-3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8">
+        <v>0.16625000000000001</v>
+      </c>
+      <c r="C8">
+        <v>9.6250000000000002E-2</v>
+      </c>
+      <c r="D8">
+        <v>0.16625000000000001</v>
+      </c>
+      <c r="E8">
+        <v>0.17399999999999999</v>
+      </c>
+      <c r="F8">
+        <v>1.8387423002666176E-2</v>
+      </c>
+      <c r="G8">
+        <v>2.2802417056207957E-2</v>
+      </c>
+      <c r="H8">
+        <v>1.8387423002666176E-2</v>
+      </c>
+      <c r="I8">
+        <v>2.0582484305855717E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9">
+        <v>0.40303921568627454</v>
+      </c>
+      <c r="C9">
+        <v>0.46508728179551123</v>
+      </c>
+      <c r="D9">
+        <v>0.40303921568627454</v>
+      </c>
+      <c r="E9">
+        <v>0.31496259351620942</v>
+      </c>
+      <c r="F9">
+        <v>1.1721982164199687E-2</v>
+      </c>
+      <c r="G9">
+        <v>2.2859423098848478E-2</v>
+      </c>
+      <c r="H9">
+        <v>1.1721982164199687E-2</v>
+      </c>
+      <c r="I9">
+        <v>2.0633940516620358E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10">
+        <v>0.30930000000000002</v>
+      </c>
+      <c r="C10">
+        <v>0.1401</v>
+      </c>
+      <c r="D10">
+        <v>0.30930000000000002</v>
+      </c>
+      <c r="E10">
+        <v>0.1489</v>
+      </c>
+      <c r="F10">
+        <v>2.2984278753332719E-2</v>
+      </c>
+      <c r="G10">
+        <v>2.8503021320259947E-2</v>
+      </c>
+      <c r="H10">
+        <v>2.2984278753332719E-2</v>
+      </c>
+      <c r="I10">
+        <v>2.5728105382319646E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11">
+        <v>0.2331007194244604</v>
+      </c>
+      <c r="C11">
+        <v>0.16937410071942446</v>
+      </c>
+      <c r="D11">
+        <v>0.2331007194244604</v>
+      </c>
+      <c r="E11">
+        <v>0.27154676258992805</v>
+      </c>
+      <c r="F11">
+        <v>2.5558517973705987E-2</v>
+      </c>
+      <c r="G11">
+        <v>3.1695359708129062E-2</v>
+      </c>
+      <c r="H11">
+        <v>2.5558517973705987E-2</v>
+      </c>
+      <c r="I11">
+        <v>2.8609653185139448E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12">
+        <v>0.38</v>
+      </c>
+      <c r="C12">
+        <v>0.19699999999999998</v>
+      </c>
+      <c r="D12">
+        <v>0.38</v>
+      </c>
+      <c r="E12">
+        <v>0.254</v>
+      </c>
+      <c r="F12">
+        <v>4.5968557506665441E-3</v>
+      </c>
+      <c r="G12">
+        <v>5.7006042640519892E-3</v>
+      </c>
+      <c r="H12">
+        <v>4.5968557506665441E-3</v>
+      </c>
+      <c r="I12">
+        <v>5.1456210764639293E-3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13">
+        <v>4.1000000000000009E-2</v>
+      </c>
+      <c r="C13">
+        <v>6.0999999999999999E-2</v>
+      </c>
+      <c r="D13">
+        <v>4.1000000000000009E-2</v>
+      </c>
+      <c r="E13">
+        <v>5.8999999999999997E-2</v>
+      </c>
+      <c r="F13">
+        <v>4.5968557506665441E-3</v>
+      </c>
+      <c r="G13">
+        <v>5.7006042640519892E-3</v>
+      </c>
+      <c r="H13">
+        <v>4.5968557506665441E-3</v>
+      </c>
+      <c r="I13">
+        <v>5.1456210764639293E-3</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E735D096-ABFB-4885-9E15-3D2EB09E5A63}">
+  <dimension ref="A1:I6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F1" t="s">
+        <v>51</v>
+      </c>
+      <c r="G1" t="s">
+        <v>52</v>
+      </c>
+      <c r="H1" t="s">
+        <v>53</v>
+      </c>
+      <c r="I1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B2">
+        <v>0.23625000000000002</v>
+      </c>
+      <c r="C2">
+        <v>0.27725</v>
+      </c>
+      <c r="D2">
+        <v>0.23625000000000002</v>
+      </c>
+      <c r="E2">
+        <v>0.21775</v>
+      </c>
+      <c r="F2">
+        <v>0.35555555555555557</v>
+      </c>
+      <c r="G2">
+        <v>0.21080368906455862</v>
+      </c>
+      <c r="H2">
+        <v>0.35555555555555557</v>
+      </c>
+      <c r="I2">
+        <v>0.19536019536019536</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3">
+        <v>0.11200000000000002</v>
+      </c>
+      <c r="C3">
+        <v>8.2000000000000017E-2</v>
+      </c>
+      <c r="D3">
+        <v>0.11200000000000002</v>
+      </c>
+      <c r="E3">
+        <v>0.19900000000000001</v>
+      </c>
+      <c r="F3">
+        <v>0.88888888888888884</v>
+      </c>
+      <c r="G3">
+        <v>0.65876152832674562</v>
+      </c>
+      <c r="H3">
+        <v>0.88888888888888884</v>
+      </c>
+      <c r="I3">
+        <v>0.61050061050061044</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>0.17699999999999996</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>0.40500000000000003</v>
+      </c>
+      <c r="F4">
+        <v>3.3333333333333333E-2</v>
+      </c>
+      <c r="G4">
+        <v>7.9051383399209474E-2</v>
+      </c>
+      <c r="H4">
+        <v>3.3333333333333333E-2</v>
+      </c>
+      <c r="I4">
+        <v>7.326007326007325E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5">
+        <v>3.3000000000000002E-2</v>
+      </c>
+      <c r="C5">
+        <v>1.7000000000000001E-2</v>
+      </c>
+      <c r="D5">
+        <v>3.3000000000000002E-2</v>
+      </c>
+      <c r="E5">
+        <v>0.06</v>
+      </c>
+      <c r="F5">
+        <v>6.6666666666666666E-2</v>
+      </c>
+      <c r="G5">
+        <v>3.9525691699604737E-2</v>
+      </c>
+      <c r="H5">
+        <v>6.6666666666666666E-2</v>
+      </c>
+      <c r="I5">
+        <v>3.6630036630036625E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B6">
+        <v>3.9E-2</v>
+      </c>
+      <c r="C6">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="D6">
+        <v>3.9E-2</v>
+      </c>
+      <c r="E6">
+        <v>9.6000000000000002E-2</v>
+      </c>
+      <c r="F6">
+        <v>8.8888888888888892E-2</v>
+      </c>
+      <c r="G6">
+        <v>5.2700922266139656E-2</v>
+      </c>
+      <c r="H6">
+        <v>8.8888888888888892E-2</v>
+      </c>
+      <c r="I6">
+        <v>4.884004884004884E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>